--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2053285.823646315</v>
+        <v>2157465.458097388</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283219</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9720414.796983048</v>
+        <v>9720414.796983046</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>222.2943037901848</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>308.8588510116053</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>77.403936898138</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>192.7860573675495</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>169.501588699314</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>199.6710892234282</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>101.9753209686658</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>3.166281869766155</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.5103896297359</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18.93482921065049</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610059</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.16281301712261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1664,13 +1666,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986402</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>1.255571502154929</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4105577836242</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>150.6726801246874</v>
       </c>
       <c r="X19" t="n">
-        <v>33.828918917875</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695543</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881248</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>108.361395470247</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695169</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>66.12869588327267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406033</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,13 +2614,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701319</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>62.36981422366932</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>85.08368458989422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977214</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>10.63412424768211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701319</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>134.7910873020739</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>74.75770077867823</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>149.1095818503206</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.5078095423595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>142.3046100066265</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6152205166461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>53.82913822149928</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>129.1078928223853</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833771</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63637568893558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2784.797704722321</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>2453.73481737875</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>2746.162315732314</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1881.201889474758</v>
+        <v>1612.736483535255</v>
       </c>
       <c r="C4" t="n">
-        <v>1712.265706546851</v>
+        <v>1612.736483535255</v>
       </c>
       <c r="D4" t="n">
-        <v>1562.149067134516</v>
+        <v>1612.736483535255</v>
       </c>
       <c r="E4" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435997</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U4" t="n">
-        <v>3055.734142589393</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V4" t="n">
-        <v>2801.049654383506</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W4" t="n">
-        <v>2511.632484346545</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X4" t="n">
-        <v>2283.642933448528</v>
+        <v>1794.384948365495</v>
       </c>
       <c r="Y4" t="n">
-        <v>2062.850354304998</v>
+        <v>1794.384948365495</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>2249.271807195286</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1880.309290254874</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1522.043591648124</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1136.255339049879</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>725.269434260272</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>310.1969841052684</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>2635.871647259408</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>730.5823923378725</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C7" t="n">
-        <v>561.6462094099656</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>561.6462094099656</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>413.7331158275725</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>266.8431683296621</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>266.8431683296621</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1361.01298720966</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>1133.023436311642</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y7" t="n">
-        <v>912.2308571681123</v>
+        <v>359.619250712236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662579</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.568951662579</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>85.63820654395161</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5005,7 +5007,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>231.8553933260938</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5024,67 +5026,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703073</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703073</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703073</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5275,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>633.9926444679541</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>633.9926444679541</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>486.0795508855609</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.167399417937</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1888.077129657224</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5686,37 +5688,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832654</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831756</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625869</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,49 +5755,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5819,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438182</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>747.3584617859333</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>747.3584617859333</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>599.4453682035402</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>452.5554207056298</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>285.3593214205097</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6054,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438182</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>996.5276398439756</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1398.968683817745</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1178.176104674215</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6218,52 +6220,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6291,40 +6293,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132772</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2356.041646372058</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856226</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>550.6376870732869</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>2817.800993781638</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
         <v>175.9033664000583</v>
@@ -6622,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192584</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6765,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961266</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>3192.420589669521</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>3023.484406741614</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741614</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159221</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.68136566131</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.48526637619</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218388</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296626</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822165</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998105</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729139</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389147</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098132</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650993</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305897</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328838</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>3932.255922673036</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>3677.57143446715</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>3677.57143446715</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>3449.581883569133</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>3374.069054499761</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232836</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
         <v>779.6143379232836</v>
@@ -7090,55 +7092,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>961.2628027535234</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>2980.381044744764</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>3607.979008299371</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>4159.888738538658</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>4583.511888033726</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>628.553327152704</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,7 +7350,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2123.082773965825</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>2123.082773965825</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1868.398285759938</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.981115722978</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
@@ -7415,22 +7417,22 @@
         <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576781</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,13 +7587,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7627,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7670,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.556298996152</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7824,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823068</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944657</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>144.1654765207763</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84.77391660561992</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>135.8503182119036</v>
       </c>
       <c r="X19" t="n">
-        <v>191.8807364711622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>31.93331737597693</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012621</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.737454790098127e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610413</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>104.8770068749585</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>55.21102825632967</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>127.725524766797</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>151.7319110345171</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>143.8269525734166</v>
       </c>
     </row>
     <row r="35">
@@ -25205,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>68.29586847696768</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.07684380973529</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.116438016304784</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>77.79022981064216</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>126.002841960438</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.31315520054599</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823146</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>231.8866226476554</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224532</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224533</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224532</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224532</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678109</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678108</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678134</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678134</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26448,7 +26450,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26457,7 +26459,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-931167.5261955129</v>
       </c>
       <c r="C6" t="n">
-        <v>397577.2195320795</v>
+        <v>397577.21953208</v>
       </c>
       <c r="D6" t="n">
         <v>397577.2195320796</v>
       </c>
       <c r="E6" t="n">
-        <v>148089.2048572106</v>
+        <v>148089.2048572105</v>
       </c>
       <c r="F6" t="n">
-        <v>473501.666664566</v>
+        <v>473501.6666645661</v>
       </c>
       <c r="G6" t="n">
         <v>473501.666664566</v>
       </c>
       <c r="H6" t="n">
+        <v>473501.6666645664</v>
+      </c>
+      <c r="I6" t="n">
         <v>473501.6666645659</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>255970.4642672885</v>
+      </c>
+      <c r="K6" t="n">
+        <v>473501.6666645658</v>
+      </c>
+      <c r="L6" t="n">
         <v>473501.666664566</v>
       </c>
-      <c r="J6" t="n">
-        <v>255970.4642672889</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>388446.6387290542</v>
+      </c>
+      <c r="N6" t="n">
         <v>473501.6666645661</v>
       </c>
-      <c r="L6" t="n">
-        <v>473501.6666645659</v>
-      </c>
-      <c r="M6" t="n">
-        <v>388446.6387290543</v>
-      </c>
-      <c r="N6" t="n">
-        <v>473501.6666645664</v>
-      </c>
       <c r="O6" t="n">
+        <v>473501.666664566</v>
+      </c>
+      <c r="P6" t="n">
         <v>473501.6666645661</v>
-      </c>
-      <c r="P6" t="n">
-        <v>473501.6666645658</v>
       </c>
     </row>
   </sheetData>
@@ -26753,31 +26755,31 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>28.70086816871719</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>77.37908764444825</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>208.8079013074749</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>32.92359802148761</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>195.7713030716935</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>94.93667516389229</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>42.77969394565496</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>215.4183714823286</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2234520337447</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>77.4175911991876</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>182.1679443159942</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28327,16 +28329,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28384,13 +28386,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28485,7 +28487,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.237165431828341e-11</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-8.852415097256501e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28801,22 +28803,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.836930773104541e-12</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29050,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-5.456214517326002e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29332,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>514.695376254093</v>
       </c>
       <c r="P18" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447137</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868586</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>518.439455159358</v>
+        <v>581.3243739860836</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>295.9743940159498</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159457</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>318.3985571819322</v>
+        <v>583.1096135868589</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4402738502018</v>
+        <v>468.3778278510285</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216798004</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669251</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391484002</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162589</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786855</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>699.04966154581</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899035</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="P18" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36054,7 +36056,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060366</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>440.9755796648402</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>376.3054212373396</v>
+        <v>439.1903400640654</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>161.9999866016195</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193548</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>176.2645232599139</v>
+        <v>440.9755796648406</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P33" t="n">
-        <v>29.46586643587157</v>
+        <v>334.4034204366982</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999262</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924756</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P39" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>71.39556506237862</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462716</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>220.940907034241</v>
       </c>
       <c r="P42" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367799</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>556.4534171013655</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2153452.848083394</v>
+        <v>2155213.378386179</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>337.2533643467237</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.68942351146667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.882988967595133</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>10.13659100914477</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.3751023006571</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>61.42978662487943</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>178.7060423383824</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>126.5388824951713</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>71.98153210089519</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>120.6889225686085</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710056</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>105.1162657551305</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>34.22340015155906</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>59.00369384633112</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>74.5647487423348</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>220.9731342426608</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.56327578339665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>174.7517449752703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>39.39795577638999</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.5115415340516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428482</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
         <v>1678.62132134232</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>2388.243802269322</v>
       </c>
     </row>
     <row r="3">
@@ -4388,10 +4388,10 @@
         <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
@@ -4400,25 +4400,25 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
@@ -4445,7 +4445,7 @@
         <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1830.511576737339</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1830.511576737339</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1830.511576737339</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1575.827088531452</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.178203944121</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C5" t="n">
-        <v>1628.178203944121</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008242</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="V7" t="n">
-        <v>1722.044275313594</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
         <v>1678.62132134232</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,10 +5135,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2325.055080985707</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4949469776659</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E16" t="n">
-        <v>295.5818533952728</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F16" t="n">
-        <v>295.5818533952728</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>128.3857541101527</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>128.3857541101527</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>989.3306680894892</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1170.979132919729</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,55 +6688,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2270.446169463826</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2270.446169463826</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1981.370942808024</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.686454602137</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W37" t="n">
-        <v>1437.269284565176</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.279733667159</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.4871545236284</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270475</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>60.33736343303605</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780072</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>47.04243616700647</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>108.2431272522967</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>177.5728945814932</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>65.54986409393021</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>147.0213775686981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>6.274541026374266</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>212.739687547438</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392193904</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
@@ -26325,25 +26325,25 @@
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
@@ -26355,7 +26355,7 @@
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813251</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89744.12305813251</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813249</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813248</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678135</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26447,7 +26447,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931167.526195513</v>
+        <v>-931167.5261955129</v>
       </c>
       <c r="C6" t="n">
+        <v>397577.2195320795</v>
+      </c>
+      <c r="D6" t="n">
         <v>397577.21953208</v>
       </c>
-      <c r="D6" t="n">
-        <v>397577.2195320798</v>
-      </c>
       <c r="E6" t="n">
-        <v>147741.8256028538</v>
+        <v>148054.4669317749</v>
       </c>
       <c r="F6" t="n">
-        <v>473154.287410209</v>
+        <v>473466.9287391301</v>
       </c>
       <c r="G6" t="n">
-        <v>473154.2874102091</v>
+        <v>473466.92873913</v>
       </c>
       <c r="H6" t="n">
-        <v>473154.287410209</v>
+        <v>473466.9287391305</v>
       </c>
       <c r="I6" t="n">
-        <v>473154.2874102092</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="J6" t="n">
-        <v>255623.0850129316</v>
+        <v>255935.7263418529</v>
       </c>
       <c r="K6" t="n">
-        <v>473154.2874102091</v>
+        <v>473466.9287391301</v>
       </c>
       <c r="L6" t="n">
-        <v>473154.287410209</v>
+        <v>473466.9287391301</v>
       </c>
       <c r="M6" t="n">
-        <v>388099.2594746973</v>
+        <v>388411.9008036185</v>
       </c>
       <c r="N6" t="n">
-        <v>473154.287410209</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="O6" t="n">
-        <v>473154.287410209</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="P6" t="n">
-        <v>473154.2874102091</v>
+        <v>473466.9287391301</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>45.48047731675683</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.5485151445869</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>182.8860363638468</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>48.93987327667864</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>344.5464506115382</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.5552677716047</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>27.50236604516788</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>48.93987327667864</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>72.28912962051962</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>222.7020862222417</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>24.3708883089429</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.974537359014254e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.990169299200975e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,19 +28380,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306628</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
